--- a/data/924/PBC/SIPR/Statistics of Interbank Pledged Repo.xlsx
+++ b/data/924/PBC/SIPR/Statistics of Interbank Pledged Repo.xlsx
@@ -1416,18 +1416,66 @@
           <t>2022.02</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
